--- a/template/Go, No-Go.xlsx
+++ b/template/Go, No-Go.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Go, No-Go" sheetId="3" r:id="rId1"/>
@@ -308,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -335,24 +335,6 @@
   </si>
   <si>
     <t>오반응시간</t>
-  </si>
-  <si>
-    <t>NoGo</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Go</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>억제점수</t>
@@ -748,33 +730,33 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
@@ -783,24 +765,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="2">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>49</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2">
-        <v>0.39511863265306107</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.38982060000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
+        <f>10-B2</f>
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <f>50-C2</f>
+        <v>50</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -817,1013 +797,545 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.44832</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.54550299999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.54664500000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.41905100000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.39090900000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.398563</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.42990400000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.42792799999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.40820600000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.50409599999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.38285400000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.323745</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.351051</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.31036799999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.31086000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.422842</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.35702499999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.420429</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.44033800000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>24</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.58710300000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>25</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.42785800000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>26</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.349547</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>27</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.42502200000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>28</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.35306199999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>29</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.36209000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>30</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.35725400000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>31</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.44197900000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>32</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0.53861099999999995</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>33</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0.45000899999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>34</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0.484018</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>35</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>36</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>37</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0.488203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>38</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0.38728099999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>39</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0.40569499999999997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>40</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0.83728999999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>41</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0.39543</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>42</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0.469111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0.39028200000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>44</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="2">
-        <v>0.39394699999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>45</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0.39868199999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>46</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="2">
-        <v>0.35860799999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>47</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0.31814799999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>48</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0.30290499999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>49</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0.24135699999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>50</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="2">
-        <v>0.45134000000000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>51</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0.28395500000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>52</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="2">
-        <v>0.28523799999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>53</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="2">
-        <v>0.31913999999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>54</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="2">
-        <v>0.36472300000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>55</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0.53442699999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>56</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="2">
-        <v>0.29737400000000003</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>57</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="2">
-        <v>0.28684599999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>58</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="2">
-        <v>0.17758199999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>59</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="2">
-        <v>6.4807000000000003E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>60</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="2">
-        <v>0.24235499999999999</v>
-      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
